--- a/data/trans_orig/P51_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4054</v>
+        <v>3827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14656</v>
+        <v>14773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06133324289376361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03055000397668577</v>
+        <v>0.02883896090441869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1104479872553203</v>
+        <v>0.1113305595680215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>5308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1194</v>
+        <v>1208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11902</v>
+        <v>12494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1105623559474573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02487637021740517</v>
+        <v>0.02515389789803256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2479239897384239</v>
+        <v>0.2602552258092065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -784,19 +784,19 @@
         <v>13446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7406</v>
+        <v>7349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22448</v>
+        <v>22126</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07441152417090248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04098519263592972</v>
+        <v>0.04067101852278669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1242245074543541</v>
+        <v>0.1224422245131398</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4908</v>
+        <v>4996</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007359296444468662</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03698980556271845</v>
+        <v>0.03765081063582524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4977</v>
+        <v>4902</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005404214523784177</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02754237859138125</v>
+        <v>0.02712677241680392</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>2799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7780</v>
+        <v>8011</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02109194007249943</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006404763883647345</v>
+        <v>0.006310739461644919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05862904239713092</v>
+        <v>0.06037132337035242</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>2799</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7883</v>
+        <v>7644</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01548862309524978</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004544516664401161</v>
+        <v>0.004582345711271631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04362645836206739</v>
+        <v>0.04230245379790819</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>120782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113063</v>
+        <v>113666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125867</v>
+        <v>126563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9102155205892682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8520429727798888</v>
+        <v>0.8565873403318313</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9485374749754996</v>
+        <v>0.953780828642891</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -960,19 +960,19 @@
         <v>42697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36103</v>
+        <v>35511</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46811</v>
+        <v>46797</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8894376440525427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7520760102615769</v>
+        <v>0.7397447741907935</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9751236297825949</v>
+        <v>0.9748461021019674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>154</v>
@@ -981,19 +981,19 @@
         <v>163480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153914</v>
+        <v>154187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170812</v>
+        <v>170378</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9046956382100636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8517555693323929</v>
+        <v>0.8532664083575265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9452664526885735</v>
+        <v>0.9428672712047548</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>4223</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11086</v>
+        <v>11742</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009258474244786352</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002291081545682751</v>
+        <v>0.002260802645808702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02430701517331219</v>
+        <v>0.02574592462844687</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1106,19 +1106,19 @@
         <v>9021</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4016</v>
+        <v>3992</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16827</v>
+        <v>16843</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04780567896971848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02128337789707758</v>
+        <v>0.02115553891044823</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08917693129584062</v>
+        <v>0.08926245122343993</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1127,19 +1127,19 @@
         <v>13243</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6201</v>
+        <v>7026</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24316</v>
+        <v>24334</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02053953821611096</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009617027765538055</v>
+        <v>0.01089733263539916</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03771208446385495</v>
+        <v>0.03774150085798283</v>
       </c>
     </row>
     <row r="10">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5215</v>
+        <v>4910</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00192737630406991</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01143435938648325</v>
+        <v>0.01076477594664908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4752</v>
+        <v>4859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001363318403161607</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00737015479002458</v>
+        <v>0.00753546224211778</v>
       </c>
     </row>
     <row r="11">
@@ -1219,19 +1219,19 @@
         <v>5944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2801</v>
+        <v>2066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13333</v>
+        <v>12169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01303400503498142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006141718670093239</v>
+        <v>0.004529355720050753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02923375479683693</v>
+        <v>0.02668204370939697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7095</v>
+        <v>7082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01081475517459593</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03759860876367582</v>
+        <v>0.03753213008337856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1261,19 +1261,19 @@
         <v>7985</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3888</v>
+        <v>3856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15680</v>
+        <v>16173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01238452863787268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006029637657251984</v>
+        <v>0.005979691023024764</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02431893319639896</v>
+        <v>0.02508293936224382</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>445026</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>436933</v>
+        <v>436472</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>450177</v>
+        <v>451109</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9757801444161623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9580361499263685</v>
+        <v>0.9570236876789062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9870733171196423</v>
+        <v>0.9891184611222713</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>169</v>
@@ -1311,19 +1311,19 @@
         <v>177634</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>169529</v>
+        <v>169510</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>183595</v>
+        <v>183493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9413795658556856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8984280267416233</v>
+        <v>0.8983262265039053</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.972972263818173</v>
+        <v>0.9724325031103962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>596</v>
@@ -1332,19 +1332,19 @@
         <v>622660</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>610975</v>
+        <v>610650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>630832</v>
+        <v>630670</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9657126147428547</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9475906240889638</v>
+        <v>0.9470865608158583</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9783879298497448</v>
+        <v>0.9781368587710656</v>
       </c>
     </row>
     <row r="13">
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12013</v>
+        <v>10856</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03163939735963018</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1181138810815359</v>
+        <v>0.1067444173971437</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11394</v>
+        <v>13040</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02120197239704311</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07507238441100916</v>
+        <v>0.08592130338221124</v>
       </c>
     </row>
     <row r="15">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4807</v>
+        <v>5055</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.009213154247408806</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04726801208613396</v>
+        <v>0.04969931101194812</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1520,19 +1520,19 @@
         <v>3361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8874</v>
+        <v>8688</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06713885895905404</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01992026183084596</v>
+        <v>0.02008122742117353</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1772445440424588</v>
+        <v>0.1735369681706791</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1541,19 +1541,19 @@
         <v>4298</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1119</v>
+        <v>1183</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10533</v>
+        <v>10593</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02832208952391309</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007370176284256743</v>
+        <v>0.00779682586131614</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06940076568223996</v>
+        <v>0.06979583619113766</v>
       </c>
     </row>
     <row r="16">
@@ -1617,19 +1617,19 @@
         <v>97549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88345</v>
+        <v>89306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100726</v>
+        <v>100725</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9591474483929611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8686450292232712</v>
+        <v>0.8780998785611989</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903833649614511</v>
+        <v>0.9903743137438943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1638,19 +1638,19 @@
         <v>46706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41193</v>
+        <v>41379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49070</v>
+        <v>49062</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.932861141040946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8227554559575376</v>
+        <v>0.826463031829321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9800797381691539</v>
+        <v>0.9799187725788265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -1659,19 +1659,19 @@
         <v>144255</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135693</v>
+        <v>135539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148646</v>
+        <v>148790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9504759380790438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8940625828222075</v>
+        <v>0.8930505159481477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9794101953086803</v>
+        <v>0.9803588384987652</v>
       </c>
     </row>
     <row r="18">
@@ -1763,19 +1763,19 @@
         <v>15579</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9070</v>
+        <v>8954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26469</v>
+        <v>27537</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02256291403642706</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01313552299743297</v>
+        <v>0.01296819063861532</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03833420173433658</v>
+        <v>0.03988145597210689</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1784,19 +1784,19 @@
         <v>14328</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7780</v>
+        <v>8050</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24538</v>
+        <v>24143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04996478078107215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02713134339548338</v>
+        <v>0.02807011455016642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08556840047182807</v>
+        <v>0.08418943723945459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1805,19 +1805,19 @@
         <v>29907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19371</v>
+        <v>20246</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44010</v>
+        <v>44699</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03060389653865559</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01982219528142658</v>
+        <v>0.02071729023916825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04503554156889213</v>
+        <v>0.04573962690239853</v>
       </c>
     </row>
     <row r="20">
@@ -1834,19 +1834,19 @@
         <v>2793</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7602</v>
+        <v>7457</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004044458356208609</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001268042485590738</v>
+        <v>0.001266327633661513</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01101017362830814</v>
+        <v>0.01079957728147238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1855,19 +1855,19 @@
         <v>3361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9881</v>
+        <v>8968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01172190626367421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003466576604660153</v>
+        <v>0.003499441124230922</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03445640720911171</v>
+        <v>0.03127240919432184</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1876,19 +1876,19 @@
         <v>6154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2117</v>
+        <v>2156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12315</v>
+        <v>13509</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006297378745209703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002166497497677509</v>
+        <v>0.002205851636045043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01260162073823295</v>
+        <v>0.01382337573242206</v>
       </c>
     </row>
     <row r="21">
@@ -1905,19 +1905,19 @@
         <v>8743</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3936</v>
+        <v>4036</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16716</v>
+        <v>15534</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01266273525077658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005700854249818096</v>
+        <v>0.005844774255272678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02421008708209576</v>
+        <v>0.02249782120149239</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7157</v>
+        <v>6947</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007116174591362133</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02495815420811226</v>
+        <v>0.02422489985075601</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1947,19 +1947,19 @@
         <v>10784</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5589</v>
+        <v>5980</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18706</v>
+        <v>19001</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01103511631424495</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005719496045007108</v>
+        <v>0.006119688694441778</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01914151077479483</v>
+        <v>0.01944392145775855</v>
       </c>
     </row>
     <row r="22">
@@ -1976,19 +1976,19 @@
         <v>663357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>651034</v>
+        <v>650740</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>672101</v>
+        <v>672237</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9607298923565878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.942882914714661</v>
+        <v>0.9424561080046095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9733929712126985</v>
+        <v>0.9735902823020773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -1997,19 +1997,19 @@
         <v>267038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256438</v>
+        <v>256325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275116</v>
+        <v>274327</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9311971383638915</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8942358210592437</v>
+        <v>0.8938402315713732</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9593694178579959</v>
+        <v>0.9566153581852672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>883</v>
@@ -2018,19 +2018,19 @@
         <v>930394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>912969</v>
+        <v>913317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>942159</v>
+        <v>943098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9520636084018897</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9342328468204789</v>
+        <v>0.9345890239247329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9641028478646178</v>
+        <v>0.9650633811170506</v>
       </c>
     </row>
     <row r="23">
@@ -2361,19 +2361,19 @@
         <v>3834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9805</v>
+        <v>9671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04938180308632119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01275067043337945</v>
+        <v>0.01307807801082159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1262734807715104</v>
+        <v>0.1245444107094749</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7206</v>
+        <v>6254</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1123585131373599</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3812280599737661</v>
+        <v>0.3308442161530491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2403,19 +2403,19 @@
         <v>5958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2142</v>
+        <v>2769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11879</v>
+        <v>12948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06171117976182321</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02218950820880218</v>
+        <v>0.02868205595063186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.123027792335132</v>
+        <v>0.1341064517333317</v>
       </c>
     </row>
     <row r="5">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6957</v>
+        <v>6949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02872432661349108</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08959654023760642</v>
+        <v>0.08948977831374628</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7571</v>
+        <v>7490</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0231007708215029</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07841704401671379</v>
+        <v>0.0775792215733272</v>
       </c>
     </row>
     <row r="7">
@@ -2542,19 +2542,19 @@
         <v>71585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65095</v>
+        <v>64542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75388</v>
+        <v>75545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9218938703001878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8383096835251791</v>
+        <v>0.8311876864079389</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9708659909039967</v>
+        <v>0.9728850993707642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2563,7 +2563,7 @@
         <v>16779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11697</v>
+        <v>12649</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>18903</v>
@@ -2572,7 +2572,7 @@
         <v>0.88764148686264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6187719400262337</v>
+        <v>0.669155783846951</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -2584,19 +2584,19 @@
         <v>88363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81780</v>
+        <v>81607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92860</v>
+        <v>92520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9151880494166739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8470091143099083</v>
+        <v>0.8452117892589104</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9617589203723077</v>
+        <v>0.9582446213374087</v>
       </c>
     </row>
     <row r="8">
@@ -2688,19 +2688,19 @@
         <v>7745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3079</v>
+        <v>3050</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15839</v>
+        <v>15929</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01552033165541401</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.00616884929372006</v>
+        <v>0.006112497951990516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03173907348761582</v>
+        <v>0.03191759061152558</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -2709,19 +2709,19 @@
         <v>11149</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6391</v>
+        <v>5806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19727</v>
+        <v>19952</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04458349766501508</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0255568928224877</v>
+        <v>0.02321793586074046</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0788883937378792</v>
+        <v>0.07978983505998713</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -2730,19 +2730,19 @@
         <v>18894</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11294</v>
+        <v>10893</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28808</v>
+        <v>29297</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02522181808757544</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01507632956159249</v>
+        <v>0.01454117807573764</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03845595339505121</v>
+        <v>0.03910934666703079</v>
       </c>
     </row>
     <row r="10">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5551</v>
+        <v>6388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002234255369932822</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01112263206333885</v>
+        <v>0.01280113414996091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4703</v>
+        <v>5381</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003715949032317885</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0188059602705407</v>
+        <v>0.0215203876930423</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6473</v>
+        <v>7211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002728854993301439</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008641533442794603</v>
+        <v>0.009625964769097033</v>
       </c>
     </row>
     <row r="11">
@@ -2830,19 +2830,19 @@
         <v>4470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1338</v>
+        <v>1110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12149</v>
+        <v>10512</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008957871629828026</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002681723584759572</v>
+        <v>0.002224147447242756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0243442009097808</v>
+        <v>0.02106323045059083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2851,19 +2851,19 @@
         <v>3849</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8732</v>
+        <v>9782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01539376844206574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003813559231109673</v>
+        <v>0.003984134241312776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03491801758018835</v>
+        <v>0.03911842307919981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -2872,19 +2872,19 @@
         <v>8320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3985</v>
+        <v>3721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16047</v>
+        <v>16358</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01110621863311352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005319182860902518</v>
+        <v>0.004967042750266716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02142185126035374</v>
+        <v>0.02183600891621451</v>
       </c>
     </row>
     <row r="12">
@@ -2901,19 +2901,19 @@
         <v>485722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>475924</v>
+        <v>476655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>492094</v>
+        <v>491644</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9732875413448251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9536548591391311</v>
+        <v>0.955119433907219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9860551235796406</v>
+        <v>0.9851535087160367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>232</v>
@@ -2922,19 +2922,19 @@
         <v>234132</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224103</v>
+        <v>224005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>240565</v>
+        <v>240443</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9363067848606013</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8961993619007287</v>
+        <v>0.8958079039964495</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9620327585747253</v>
+        <v>0.9615464951121957</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>682</v>
@@ -2943,19 +2943,19 @@
         <v>719854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>706119</v>
+        <v>708067</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>728965</v>
+        <v>730397</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9609431082860096</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9426078365564161</v>
+        <v>0.9452078983162094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9731054795437294</v>
+        <v>0.9750168795637868</v>
       </c>
     </row>
     <row r="13">
@@ -3047,19 +3047,19 @@
         <v>3879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9385</v>
+        <v>8902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02745457102620143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006814604814263509</v>
+        <v>0.006763572201825557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06641901284439958</v>
+        <v>0.06299984390086076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6426</v>
+        <v>5956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01842105712398413</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06352817525537265</v>
+        <v>0.05888206965455799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -3089,19 +3089,19 @@
         <v>5743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1957</v>
+        <v>1932</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11654</v>
+        <v>11703</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02368592987562282</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008072622062124078</v>
+        <v>0.007967446366567427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04806711984268854</v>
+        <v>0.0482698790513123</v>
       </c>
     </row>
     <row r="15">
@@ -3212,19 +3212,19 @@
         <v>137425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131919</v>
+        <v>132402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140341</v>
+        <v>140348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9725454289737986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9335809871556016</v>
+        <v>0.9370001560991392</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9931853951857365</v>
+        <v>0.9932364277981744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>98</v>
@@ -3233,7 +3233,7 @@
         <v>99283</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94720</v>
+        <v>95190</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>101146</v>
@@ -3242,7 +3242,7 @@
         <v>0.9815789428760159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9364718247446272</v>
+        <v>0.9411179303454495</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3254,19 +3254,19 @@
         <v>236707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>230796</v>
+        <v>230747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240493</v>
+        <v>240518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9763140701243772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9519328801573115</v>
+        <v>0.9517301209486877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9919273779378759</v>
+        <v>0.9920325536334326</v>
       </c>
     </row>
     <row r="18">
@@ -3358,19 +3358,19 @@
         <v>15459</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8940</v>
+        <v>8630</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24720</v>
+        <v>25327</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02153097570715908</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0124508577927593</v>
+        <v>0.01201959262275351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03442926458353431</v>
+        <v>0.03527384462800374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3379,19 +3379,19 @@
         <v>15136</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8773</v>
+        <v>8755</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24466</v>
+        <v>24064</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04089509549497575</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02370282848521509</v>
+        <v>0.02365595127492334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06610388595933686</v>
+        <v>0.06501762676573494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3400,19 +3400,19 @@
         <v>30595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22014</v>
+        <v>21184</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43530</v>
+        <v>43890</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02811742787290712</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02023175028653028</v>
+        <v>0.01946852809446719</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04000511029843959</v>
+        <v>0.04033564701246901</v>
       </c>
     </row>
     <row r="20">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5616</v>
+        <v>6673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001552927862678712</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007822264595763486</v>
+        <v>0.00929424377845077</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4707</v>
+        <v>5375</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002510634643405917</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01271820263247795</v>
+        <v>0.01452216010898664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7579</v>
+        <v>6754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001878679302413196</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006965293174131665</v>
+        <v>0.006207369642089526</v>
       </c>
     </row>
     <row r="21">
@@ -3500,19 +3500,19 @@
         <v>6701</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2460</v>
+        <v>2751</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14269</v>
+        <v>14330</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00933262657156929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003426034688183851</v>
+        <v>0.003831494126352405</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01987295397130121</v>
+        <v>0.01995815175805118</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3521,19 +3521,19 @@
         <v>3849</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8731</v>
+        <v>9619</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01040060776051914</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002663577586905763</v>
+        <v>0.00271213836737157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02359165367250901</v>
+        <v>0.02599086377745336</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -3542,19 +3542,19 @@
         <v>10550</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5331</v>
+        <v>5278</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20299</v>
+        <v>19531</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009695886409455783</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004899268054318281</v>
+        <v>0.00485036103106189</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01865480068963171</v>
+        <v>0.01794972476781957</v>
       </c>
     </row>
     <row r="22">
@@ -3571,19 +3571,19 @@
         <v>694732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>683864</v>
+        <v>683300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>702829</v>
+        <v>703324</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9675834698585929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9524469058889951</v>
+        <v>0.9516616993824991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9788604393855989</v>
+        <v>0.9795500706238791</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>347</v>
@@ -3592,19 +3592,19 @@
         <v>350194</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>339930</v>
+        <v>339374</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>357334</v>
+        <v>357406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9461936621010992</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9184606314682209</v>
+        <v>0.9169603450619599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9654854247676387</v>
+        <v>0.965681128799179</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>988</v>
@@ -3613,19 +3613,19 @@
         <v>1044925</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1029677</v>
+        <v>1030516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1055881</v>
+        <v>1056086</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9603080064152238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.946295024290094</v>
+        <v>0.9470660187028337</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9703773342185006</v>
+        <v>0.9705651507034545</v>
       </c>
     </row>
     <row r="23">
